--- a/xtt_demo/02-01_T.xlsx
+++ b/xtt_demo/02-01_T.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\AppData\Local\SAP\SAP GUI\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8460" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="NoGroup" sheetId="2" r:id="rId1"/>
@@ -23,17 +23,18 @@
     <definedName name="E_">Tree3!$E$6</definedName>
     <definedName name="F_">SimpleTree!$F$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'PrintArea (8 rows)'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">NoGroup!$6:$7</definedName>
     <definedName name="RANGE_SUM1">SimpleTree!$E$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId7"/>
+    <pivotCache cacheId="43" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Basic table example</t>
   </si>
@@ -113,31 +114,31 @@
     <t>Average by all groups</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Count of SUM 1</t>
+    <t>GRP A</t>
   </si>
   <si>
-    <t>Count of SUM 2</t>
+    <t>GRP B</t>
   </si>
   <si>
-    <t>Column Labels</t>
+    <t>GRP C</t>
   </si>
   <si>
-    <t>Total Count of SUM 1</t>
+    <t>GRP D</t>
   </si>
   <si>
-    <t>Total Count of SUM 2</t>
+    <t>(All)</t>
   </si>
   <si>
-    <t>Groups</t>
+    <t>Sum of SUM 1</t>
   </si>
   <si>
-    <t>Jan</t>
+    <t>Sum of SUM 2</t>
+  </si>
+  <si>
+    <t>Months</t>
   </si>
   <si>
     <t>01-Jan</t>
@@ -743,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -825,13 +826,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1083,10 +1078,41 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ZXXT_02_EXCEL.xlsx]Pivot based on ExcelTable!PivotTable1</c:name>
+    <c:name>[ZXXT_02_EXCEL.XLSX]Pivot based on ExcelTable!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1164,40 +1190,160 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot based on ExcelTable'!$B$3:$B$5</c:f>
+              <c:f>'Pivot based on ExcelTable'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Groups - Count of SUM 1</c:v>
+                  <c:v>Sum of SUM 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0E2D-4ACA-B2DD-18EF0C7BC1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Pivot based on ExcelTable'!$A$6:$A$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$A$4:$B$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
@@ -1207,7 +1353,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jan</c:v>
+                    <c:v>Date</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1215,12 +1361,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot based on ExcelTable'!$B$6:$B$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,28 +1382,36 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Pivot based on ExcelTable'!$C$3:$C$5</c:f>
+              <c:f>'Pivot based on ExcelTable'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Groups - Count of SUM 2</c:v>
+                  <c:v>Sum of SUM 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0E2D-4ACA-B2DD-18EF0C7BC1D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Pivot based on ExcelTable'!$A$6:$A$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$A$4:$B$5</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
@@ -1267,7 +1421,7 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Jan</c:v>
+                    <c:v>Date</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1275,12 +1429,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pivot based on ExcelTable'!$C$6:$C$8</c:f>
+              <c:f>'Pivot based on ExcelTable'!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,119 +1452,10 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="294297368"/>
-        <c:axId val="294296384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="294297368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="294296384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="294296384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="294297368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2083,18 +2128,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44013.699615740741" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshOnLoad="1" refreshedBy="Moldabayev, Birzhan" refreshedDate="44019.56553738426" missingItemsLimit="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Caption" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="1">
+        <s v="{R-T-CAPTION}"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Group" numFmtId="0">
-      <sharedItems count="1">
-        <s v="{R-T-GROUP}"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-01-01T00:00:00" maxDate="2020-01-02T00:00:00" count="1">
@@ -2511,17 +2556,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A3:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="2">
-        <item n="Groups" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="369">
         <item x="0"/>
         <item x="1"/>
@@ -2894,12 +2939,12 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="14">
         <item x="0"/>
-        <item x="1"/>
+        <item n="Date" x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
@@ -2919,61 +2964,48 @@
     <field x="5"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
       <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="1"/>
+  <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="2">
     <i>
       <x/>
-      <x/>
     </i>
-    <i r="1" i="1">
+    <i i="1">
       <x v="1"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
   <dataFields count="2">
-    <dataField name="Count of SUM 1" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of SUM 2" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Sum of SUM 1" fld="3" baseField="2" baseItem="0"/>
+    <dataField name="Sum of SUM 2" fld="4" baseField="2" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="1"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -3299,10 +3331,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="6" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>$A$1:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,74 +3448,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="6" width="33.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>1</v>
@@ -3452,89 +3508,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="B3" s="32" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="34">
-        <v>1</v>
-      </c>
-      <c r="C7" s="34">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34">
-        <v>1</v>
-      </c>
-      <c r="E7" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="34">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1</v>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
